--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="H2">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="I2">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="J2">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N2">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q2">
-        <v>4.142045034673777</v>
+        <v>7.053386226418888</v>
       </c>
       <c r="R2">
-        <v>37.278405312064</v>
+        <v>63.48047603777</v>
       </c>
       <c r="S2">
-        <v>0.0009978399734372858</v>
+        <v>0.0005779955860584928</v>
       </c>
       <c r="T2">
-        <v>0.000997839973437286</v>
+        <v>0.000577995586058493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="H3">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="I3">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="J3">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O3">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P3">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q3">
-        <v>1.531810660000445</v>
+        <v>1.908539420427445</v>
       </c>
       <c r="R3">
-        <v>13.786295940004</v>
+        <v>17.176854783847</v>
       </c>
       <c r="S3">
-        <v>0.0003690210742496618</v>
+        <v>0.0001563968461976272</v>
       </c>
       <c r="T3">
-        <v>0.0003690210742496617</v>
+        <v>0.0001563968461976272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="H4">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="I4">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="J4">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N4">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O4">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P4">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q4">
-        <v>681.3107325458155</v>
+        <v>2637.662011135036</v>
       </c>
       <c r="R4">
-        <v>6131.79659291234</v>
+        <v>23738.95810021532</v>
       </c>
       <c r="S4">
-        <v>0.1641312630777801</v>
+        <v>0.2161454017986278</v>
       </c>
       <c r="T4">
-        <v>0.16413126307778</v>
+        <v>0.2161454017986278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="H5">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="I5">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="J5">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N5">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O5">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P5">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q5">
-        <v>0.9532912069022222</v>
+        <v>1.159021757655667</v>
       </c>
       <c r="R5">
-        <v>8.579620862120001</v>
+        <v>10.431195818901</v>
       </c>
       <c r="S5">
-        <v>0.0002296527595934817</v>
+        <v>9.497699949586549E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002296527595934817</v>
+        <v>9.497699949586551E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.348457333333333</v>
+        <v>6.663840333333333</v>
       </c>
       <c r="H6">
-        <v>16.045372</v>
+        <v>19.991521</v>
       </c>
       <c r="I6">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="J6">
-        <v>0.4996811083875221</v>
+        <v>0.3746160267057107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N6">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O6">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P6">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q6">
-        <v>1386.244062560071</v>
+        <v>1923.725175251694</v>
       </c>
       <c r="R6">
-        <v>12476.19656304064</v>
+        <v>17313.52657726525</v>
       </c>
       <c r="S6">
-        <v>0.3339533315024616</v>
+        <v>0.1576412554753309</v>
       </c>
       <c r="T6">
-        <v>0.3339533315024616</v>
+        <v>0.1576412554753309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="H7">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="I7">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="J7">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="N7">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="O7">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="P7">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="Q7">
-        <v>4.147331860202667</v>
+        <v>11.77492255803111</v>
       </c>
       <c r="R7">
-        <v>37.325986741824</v>
+        <v>105.97430302228</v>
       </c>
       <c r="S7">
-        <v>0.0009991135969254789</v>
+        <v>0.0009649057979032569</v>
       </c>
       <c r="T7">
-        <v>0.0009991135969254789</v>
+        <v>0.000964905797903257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="H8">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="I8">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="J8">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="O8">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="P8">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="Q8">
-        <v>1.533765833262667</v>
+        <v>3.186115597967556</v>
       </c>
       <c r="R8">
-        <v>13.803892499364</v>
+        <v>28.675040381708</v>
       </c>
       <c r="S8">
-        <v>0.000369492085554394</v>
+        <v>0.0002610888859877948</v>
       </c>
       <c r="T8">
-        <v>0.0003694920855543939</v>
+        <v>0.0002610888859877947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="H9">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="I9">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="J9">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="N9">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="O9">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="P9">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="Q9">
-        <v>682.1803442819934</v>
+        <v>4403.312808682589</v>
       </c>
       <c r="R9">
-        <v>6139.62309853794</v>
+        <v>39629.81527814329</v>
       </c>
       <c r="S9">
-        <v>0.1643407570220671</v>
+        <v>0.3608331212489898</v>
       </c>
       <c r="T9">
-        <v>0.1643407570220671</v>
+        <v>0.3608331212489898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="H10">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="I10">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="J10">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="N10">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="O10">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="P10">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="Q10">
-        <v>0.9545079692133335</v>
+        <v>1.934870855129333</v>
       </c>
       <c r="R10">
-        <v>8.59057172292</v>
+        <v>17.413837696164</v>
       </c>
       <c r="S10">
-        <v>0.0002299458838985134</v>
+        <v>0.0001585545974597477</v>
       </c>
       <c r="T10">
-        <v>0.0002299458838985133</v>
+        <v>0.0001585545974597478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.355284</v>
+        <v>11.12461466666667</v>
       </c>
       <c r="H11">
-        <v>16.065852</v>
+        <v>33.373844</v>
       </c>
       <c r="I11">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="J11">
-        <v>0.5003188916124779</v>
+        <v>0.6253839732942893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="N11">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="O11">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="P11">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="Q11">
-        <v>1388.013437455289</v>
+        <v>3211.466696191986</v>
       </c>
       <c r="R11">
-        <v>12492.1209370976</v>
+        <v>28903.20026572787</v>
       </c>
       <c r="S11">
-        <v>0.3343795830240324</v>
+        <v>0.2631663027639487</v>
       </c>
       <c r="T11">
-        <v>0.3343795830240324</v>
+        <v>0.2631663027639487</v>
       </c>
     </row>
   </sheetData>
